--- a/data/trans_dic/P2C_R1-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Dificultad-trans_dic.xlsx
@@ -715,31 +715,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08090640042243391</v>
+        <v>0.08277988464292617</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003352591338845761</v>
+        <v>0.002986336440676921</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001178561411319507</v>
+        <v>0.001183531975237938</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003368023801258171</v>
+        <v>0.002774915946778073</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.150109947065644</v>
+        <v>0.1557334246524363</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002770994319614782</v>
+        <v>0.002653523372717969</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0006395291241873544</v>
+        <v>0.0006379509439421196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002831720167040586</v>
+        <v>0.002749820506728959</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1382883253312095</v>
+        <v>0.1385399874202067</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01340489982107887</v>
+        <v>0.01292759692316791</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01388001197835343</v>
+        <v>0.01207188379124396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2042798091895905</v>
+        <v>0.2053021178218547</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02111197344576865</v>
+        <v>0.02106457431132907</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01025725302004196</v>
+        <v>0.01030201008893982</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01547488182905619</v>
+        <v>0.01549873197334271</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2421098159977363</v>
+        <v>0.2414871389671767</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01458912064058717</v>
+        <v>0.01357843949025156</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.005599840695492025</v>
+        <v>0.005708561581606303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01125687218065684</v>
+        <v>0.01126573609442409</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2081555857085642</v>
+        <v>0.2111288939366641</v>
       </c>
     </row>
     <row r="7">
@@ -843,37 +843,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001471494034269637</v>
+        <v>0.001462774539823425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003934051202191792</v>
+        <v>0.003899754286272753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07586310272113814</v>
+        <v>0.0777199517300068</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005254750283286989</v>
+        <v>0.004812769230982329</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001484586954944436</v>
+        <v>0.002006762468978187</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1098029375475922</v>
+        <v>0.1102375316742941</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0007491908094686743</v>
+        <v>0.0007452405710174726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004760655069734436</v>
+        <v>0.004338860161567798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004729147299790469</v>
+        <v>0.003830002369727126</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1059784526227464</v>
+        <v>0.1068374454408555</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.00894187318122836</v>
+        <v>0.007069244371642509</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01325187351688604</v>
+        <v>0.0132167226572395</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02546529381383558</v>
+        <v>0.02597774001348414</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1509323226753928</v>
+        <v>0.1594120305808931</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01376640313671727</v>
+        <v>0.01283696964597489</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02382836155438157</v>
+        <v>0.02245567527335499</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0183128092649846</v>
+        <v>0.01725522959522221</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1704661280459978</v>
+        <v>0.1722353180039029</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007817241511115861</v>
+        <v>0.008893104799708316</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01509958419070217</v>
+        <v>0.01531408256251231</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0182189977584798</v>
+        <v>0.01553857439290094</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1535921346552768</v>
+        <v>0.1550278004863036</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004590201284419333</v>
+        <v>0.004448432502625038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005289910021042724</v>
+        <v>0.003853026420861873</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008079960433989774</v>
+        <v>0.006515856006387472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0965161597683639</v>
+        <v>0.09738591866410573</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001557185984682263</v>
+        <v>0.001559040725760449</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004724582210696965</v>
+        <v>0.003380963095283065</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008138415791429862</v>
+        <v>0.008080659342133872</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1212110121567702</v>
+        <v>0.1184733033611434</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003808521584100576</v>
+        <v>0.003647532380511856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00525902839835677</v>
+        <v>0.005385189531845612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009596398235234791</v>
+        <v>0.009972231134438523</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1207936491804377</v>
+        <v>0.1217120402613873</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02747422455343233</v>
+        <v>0.02582369418744947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02593067845417119</v>
+        <v>0.02270387313402036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03098996389588841</v>
+        <v>0.03111777514629175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.244865820350683</v>
+        <v>0.2395406985310932</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01424722680147902</v>
+        <v>0.01411722992781093</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01988256149943337</v>
+        <v>0.02162098700454702</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03285089274643592</v>
+        <v>0.03279508797341994</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2025056720925612</v>
+        <v>0.2006881231295615</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01627943477612234</v>
+        <v>0.0167667976645635</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0183994646193641</v>
+        <v>0.01741444230486285</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0271185875872458</v>
+        <v>0.02683356667634321</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1965244413351645</v>
+        <v>0.1934160328607116</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.009511160469509472</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1931049983326784</v>
+        <v>0.1931049983326785</v>
       </c>
     </row>
     <row r="14">
@@ -1115,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00680675470933381</v>
+        <v>0.006689679923646798</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1313427058372698</v>
+        <v>0.1313668685585433</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01029702449718051</v>
+        <v>0.01013485238707511</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01785968168126693</v>
+        <v>0.01545274582238261</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003381479811774856</v>
+        <v>0.003379316252381072</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1298745132829459</v>
+        <v>0.1297918044505251</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006679291234581939</v>
+        <v>0.006862303830283955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01643138475561442</v>
+        <v>0.01477921912187024</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00369068825982388</v>
+        <v>0.00370700751212023</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1488521453587922</v>
+        <v>0.1434851135776567</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02509705355817934</v>
+        <v>0.02540271357958633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04666808815109588</v>
+        <v>0.04852100847345196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02885605526922321</v>
+        <v>0.02628637231890777</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.297575246093286</v>
+        <v>0.2956449373284942</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05796505806603677</v>
+        <v>0.05767942241089648</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0726529322609783</v>
+        <v>0.0672212121752734</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0281865723298887</v>
+        <v>0.03042676772846762</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2466601434942539</v>
+        <v>0.250603570975994</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03315142335926633</v>
+        <v>0.03319173487152182</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04693913356098511</v>
+        <v>0.04817102548131827</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02070609504677596</v>
+        <v>0.02065631432652874</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2495529640773732</v>
+        <v>0.2469718019968538</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002914799637797017</v>
+        <v>0.003053197868768689</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004046555201699867</v>
+        <v>0.003741014929925458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005509519701005713</v>
+        <v>0.005521714612651732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1143416164953826</v>
+        <v>0.1114465804196601</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004544313943475993</v>
+        <v>0.004739294674345575</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007321064199847909</v>
+        <v>0.007307879437068458</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006186811627838453</v>
+        <v>0.006174787483085878</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1442105695676815</v>
+        <v>0.145308037001927</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004493778821224857</v>
+        <v>0.004686425081220187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.006500597594925116</v>
+        <v>0.006765218392620633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.006804135904757683</v>
+        <v>0.006899911014497707</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1369037808492792</v>
+        <v>0.1366960280380659</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01075642186069151</v>
+        <v>0.01115868522432053</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01197273808996371</v>
+        <v>0.011535507039771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01436551575714503</v>
+        <v>0.01457885724138618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1753066432348411</v>
+        <v>0.1700751284308716</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01277816637639991</v>
+        <v>0.01306471629049006</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01684075091043639</v>
+        <v>0.01633866562796132</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0148431569959076</v>
+        <v>0.01458771682484131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.184227722010212</v>
+        <v>0.1854305703965962</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01043739491623927</v>
+        <v>0.01043269051036983</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01287608170166562</v>
+        <v>0.01281908644797026</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01333921291957212</v>
+        <v>0.01282538716335978</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1719770619045436</v>
+        <v>0.1717804281788824</v>
       </c>
     </row>
     <row r="19">
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10062</v>
+        <v>10295</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2276</v>
+        <v>2027</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2925</v>
+        <v>2410</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29543</v>
+        <v>30650</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2872</v>
+        <v>2750</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4260</v>
+        <v>4136</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44414</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="7">
@@ -1638,38 +1638,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4791</v>
+        <v>4621</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>8823</v>
+        <v>7674</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25405</v>
+        <v>25532</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14332</v>
+        <v>14300</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8317</v>
+        <v>8353</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13441</v>
+        <v>13462</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47649</v>
+        <v>47527</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15119</v>
+        <v>14071</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8372</v>
+        <v>8534</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16933</v>
+        <v>16947</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>66853</v>
+        <v>67808</v>
       </c>
     </row>
     <row r="8">
@@ -1775,37 +1775,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15104</v>
+        <v>15474</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4157</v>
+        <v>3808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32198</v>
+        <v>32326</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6773</v>
+        <v>6172</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5627</v>
+        <v>4558</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>52176</v>
+        <v>52599</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5737</v>
+        <v>4535</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8368</v>
+        <v>8346</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13142</v>
+        <v>13406</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30050</v>
+        <v>31738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9970</v>
+        <v>9297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18852</v>
+        <v>17766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12341</v>
+        <v>11628</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49987</v>
+        <v>50506</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10677</v>
+        <v>12146</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21481</v>
+        <v>21786</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21680</v>
+        <v>18490</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75618</v>
+        <v>76325</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2953</v>
+        <v>2861</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2761</v>
+        <v>2011</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3797</v>
+        <v>3062</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14492</v>
+        <v>14622</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2919</v>
+        <v>2089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3898</v>
+        <v>3871</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24071</v>
+        <v>23528</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4853</v>
+        <v>4648</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5995</v>
+        <v>6138</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9106</v>
+        <v>9463</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>42125</v>
+        <v>42446</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17672</v>
+        <v>16611</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13536</v>
+        <v>11851</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14563</v>
+        <v>14623</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36766</v>
+        <v>35967</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8991</v>
+        <v>8908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12285</v>
+        <v>13359</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15736</v>
+        <v>15709</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40216</v>
+        <v>39855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20744</v>
+        <v>21365</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20973</v>
+        <v>19850</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25734</v>
+        <v>25463</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>68536</v>
+        <v>67452</v>
       </c>
     </row>
     <row r="16">
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1962</v>
+        <v>1928</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10430</v>
+        <v>10432</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2272</v>
+        <v>2237</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5123</v>
+        <v>4433</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1024</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12160</v>
+        <v>12152</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3088</v>
+        <v>3173</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9449</v>
+        <v>8499</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2075</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>25758</v>
+        <v>24829</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6066</v>
+        <v>6140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13450</v>
+        <v>13984</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7484</v>
+        <v>6818</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23632</v>
+        <v>23478</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12792</v>
+        <v>12729</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20840</v>
+        <v>19282</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8538</v>
+        <v>9217</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23094</v>
+        <v>23464</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15328</v>
+        <v>15347</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>26992</v>
+        <v>27701</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11643</v>
+        <v>11615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43183</v>
+        <v>42736</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5491</v>
+        <v>5752</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8602</v>
+        <v>7953</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10364</v>
+        <v>10387</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>63233</v>
+        <v>61632</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10247</v>
+        <v>10686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18352</v>
+        <v>18318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14381</v>
+        <v>14353</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>112811</v>
+        <v>113669</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18599</v>
+        <v>19396</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>30114</v>
+        <v>31340</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>28614</v>
+        <v>29017</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>182805</v>
+        <v>182528</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20264</v>
+        <v>21022</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25452</v>
+        <v>24522</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27022</v>
+        <v>27424</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>96948</v>
+        <v>94054</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28812</v>
+        <v>29458</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>42214</v>
+        <v>40956</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34501</v>
+        <v>33907</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>144115</v>
+        <v>145056</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>43198</v>
+        <v>43178</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>59648</v>
+        <v>59384</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56097</v>
+        <v>53936</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>229638</v>
+        <v>229375</v>
       </c>
     </row>
     <row r="24">
